--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\deno_ejsexcel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\ejsexcel-browserify\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72610E3A-030D-4E84-8384-2519F042F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2261A3D-7BD3-4CA3-B0BC-80990E87284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="2990" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -20,21 +20,11 @@
     <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -648,7 +638,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%_img_({imgPh:"./test/1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
+    <t>&lt;%_img_({imgPh:"./1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注意图片可以是相对路径, 绝对路径或者http开头的地址, 但不能跨域下载, </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +794,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,14 +845,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1270,8 +1261,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2"/>
@@ -1320,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="2"/>
@@ -1416,7 +1407,7 @@
       <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1457,7 +1448,9 @@
         <v>71</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1603,17 +1596,17 @@
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="7"/>
@@ -1654,12 +1647,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>47</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\ejsexcel-browserify\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2261A3D-7BD3-4CA3-B0BC-80990E87284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8035E-DB96-4A16-8A34-984B58CF2776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="2990" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -643,6 +643,38 @@
   </si>
   <si>
     <t xml:space="preserve">注意图片可以是相对路径, 绝对路径或者http开头的地址, 但不能跨域下载, </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_dataValidation_({sqref:`${ _rc }:${ _col }1048576`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,formula1:'"测试3,测试4"'})%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_dataValidation_({sqref:`H2`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,formula1:'"测试3,测试4"'})%&gt;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -938,9 +970,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -978,9 +1010,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,26 +1045,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1065,26 +1080,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1259,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1711,6 +1709,16 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\ejsexcel-browserify\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8035E-DB96-4A16-8A34-984B58CF2776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A15CED-9A5D-4235-A66C-7EA409F97E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>序号</t>
   </si>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -675,6 +671,14 @@
       </rPr>
       <t>,formula1:'"测试3,测试4"'})%&gt;</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_lastRow%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12,_lastRow代表Excel的最大行数1048576</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1257,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1284,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1298,10 +1302,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1310,7 +1314,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1320,19 +1324,22 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -1359,8 +1366,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1395,9 +1402,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>23</v>
@@ -1406,7 +1413,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -1421,12 +1428,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1439,15 +1446,15 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1456,10 +1463,10 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1472,12 +1479,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1486,14 +1493,14 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1506,13 +1513,13 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1524,7 +1531,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1537,7 +1544,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1550,7 +1557,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1563,7 +1570,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1602,10 +1609,10 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1616,7 +1623,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>28</v>
@@ -1624,47 +1631,47 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L22" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1675,50 +1682,50 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1761,12 +1768,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1785,12 +1792,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1809,12 +1816,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\ejsexcel-browserify\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A15CED-9A5D-4235-A66C-7EA409F97E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344DC0A-31F7-4B37-B986-41CE95906F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>序号</t>
   </si>
@@ -679,6 +679,34 @@
   </si>
   <si>
     <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12,_lastRow代表Excel的最大行数1048576</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动态控制列的隐藏,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 宽度 函数, 可以在任意地方调用:</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_cols_({ min: _col, hidden: 1 })%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_cols_({ min: _col, max: _col, width: 400 })%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_setSheetName_("申请单bbc")%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1261,11 +1289,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1284,7 +1310,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1304,8 +1330,17 @@
       <c r="M1" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -1366,8 +1401,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:19" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:38" ht="26" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
@@ -1428,7 +1463,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1481,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
@@ -1466,7 +1501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1482,7 +1517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
@@ -1500,7 +1535,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1513,7 +1548,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1566,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1543,8 +1578,11 @@
       <c r="J13" s="11"/>
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1557,7 +1595,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1570,7 +1608,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\ejsexcel-browserify\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344DC0A-31F7-4B37-B986-41CE95906F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B2263-191D-4B54-B1ED-65159EF60102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>序号</t>
   </si>
@@ -707,6 +707,80 @@
   </si>
   <si>
     <t>&lt;%_setSheetName_("申请单bbc")%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动态设置单元格的顺序,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 通常配合循环行用来动态调整列的顺序:</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_setC_("AX")%&gt;&lt;%="AW单元格"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_setC_("A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>")%&gt;&lt;%="A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格"%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_freezePane_ 冻结窗格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_freezePane_({ xSplit: 1, ySplit: 1 })%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1289,9 +1363,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1310,7 +1386,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1318,7 +1394,7 @@
       <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1339,8 +1415,17 @@
       <c r="AL1" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1374,18 +1459,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
       </c>
+      <c r="B3" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
@@ -1401,8 +1491,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:38" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:50" ht="26" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
@@ -1463,7 +1554,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1572,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
@@ -1501,7 +1592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1517,7 +1608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
@@ -1535,7 +1626,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1548,7 +1639,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1657,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1582,7 +1673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1595,7 +1686,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1608,7 +1699,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\github\ejsexcel-browserify\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B2263-191D-4B54-B1ED-65159EF60102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175CA68E-6254-47CF-B029-E8BDAA5E3AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -781,6 +781,26 @@
   </si>
   <si>
     <t>&lt;%_freezePane_({ xSplit: 1, ySplit: 1 })%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态设置行高, 单位为像素:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%_setHt_(100)%&gt;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1363,11 +1383,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AX56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1847,14 +1865,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F49" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F51" s="14" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
